--- a/level0_metadata-ELTEC-gsw.xlsx
+++ b/level0_metadata-ELTEC-gsw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuliagrisot/Documents/GitHub/ELTeC-gsw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96AFD3E-6ABC-6941-8778-C24B87B0DECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEB8942-0322-2F40-82DF-D2896360C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28420" windowHeight="15820" xr2:uid="{75C0215C-EFA7-5044-9261-F41722653DFC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="318">
   <si>
     <t>Author</t>
   </si>
@@ -977,16 +977,22 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>second volume - same xml file: together word count = 121571, long</t>
-  </si>
-  <si>
-    <t>second volume - same xml file: together word count = 234406, long</t>
-  </si>
-  <si>
     <t>Free of Copyright</t>
   </si>
   <si>
     <t>potentially problematic</t>
+  </si>
+  <si>
+    <t>Remove_to_get_to_100</t>
+  </si>
+  <si>
+    <t>jbh remove</t>
+  </si>
+  <si>
+    <t>two volumes - same xml file: together word count = 234406, long</t>
+  </si>
+  <si>
+    <t>two volumes - same xml file: together word count = 121571, long</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1094,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1117,739 +1123,6 @@
       <font>
         <color indexed="2"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9999"/>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59996337778862885"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6B3"/>
-          <bgColor rgb="FFFFE6B3"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2284,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}">
-  <dimension ref="A1:O183"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I97" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2295,7 +1568,7 @@
     <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2" customWidth="1"/>
@@ -2306,10 +1579,12 @@
     <col min="12" max="12" width="27.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="29" style="2" customWidth="1"/>
     <col min="14" max="14" width="45.1640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="2"/>
+    <col min="15" max="15" width="33.1640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -2353,79 +1628,88 @@
         <v>191</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3">
-        <v>1912</v>
+        <v>1886</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="2">
-        <v>1968</v>
+        <v>1890</v>
       </c>
       <c r="H2" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G2)&gt;=70, "yes", "no")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>IF(C2&lt;=1859,"T1",IF(C2&lt;=1879,"T2",IF(C2&lt;=1899,"T3",IF(C2&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
-      </c>
-      <c r="J2" s="2">
-        <v>37268</v>
+        <v>T3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>94405</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>IF(J2="","",IF(J2="please add","",IF(J2&lt;=10000,"too short",IF(J2&lt;=50000,"short",IF(J2&lt;=100000,"medium",IF(J2&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1921</v>
+        <v>120</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1880</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>1968</v>
+        <v>1898</v>
       </c>
       <c r="H3" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G3)&gt;=70, "yes", "no")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>IF(C3&lt;=1859,"T1",IF(C3&lt;=1879,"T2",IF(C3&lt;=1899,"T3",IF(C3&lt;=1920,"T4","beyond"))))</f>
-        <v>beyond</v>
-      </c>
-      <c r="J3" s="2">
-        <v>25126</v>
+        <v>T3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>41845</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(J3="","",IF(J3="please add","",IF(J3&lt;=10000,"too short",IF(J3&lt;=50000,"short",IF(J3&lt;=100000,"medium",IF(J3&gt;100000,"long"))))))</f>
@@ -2435,44 +1719,41 @@
         <v>18</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1969</v>
+      <c r="G4" s="2">
+        <v>1943</v>
       </c>
       <c r="H4" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G4)&gt;=70, "yes", "no")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>IF(C4&lt;=1859,"T1",IF(C4&lt;=1879,"T2",IF(C4&lt;=1899,"T3",IF(C4&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J4" s="5">
-        <v>68956</v>
+      <c r="J4" s="2">
+        <v>67741</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>IF(J4="","",IF(J4="please add","",IF(J4&lt;=10000,"too short",IF(J4&lt;=50000,"short",IF(J4&lt;=100000,"medium",IF(J4&gt;100000,"long"))))))</f>
@@ -2482,30 +1763,33 @@
         <v>18</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="2">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="H5" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G5)&gt;=70, "yes", "no")</f>
@@ -2515,38 +1799,41 @@
         <f>IF(C5&lt;=1859,"T1",IF(C5&lt;=1879,"T2",IF(C5&lt;=1899,"T3",IF(C5&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J5" s="5">
-        <v>30370</v>
+      <c r="J5" s="2">
+        <v>53768</v>
       </c>
       <c r="K5" s="2" t="str">
         <f>IF(J5="","",IF(J5="please add","",IF(J5&lt;=10000,"too short",IF(J5&lt;=50000,"short",IF(J5&lt;=100000,"medium",IF(J5&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1900</v>
+        <v>95</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1911</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>1925</v>
+        <v>1937</v>
       </c>
       <c r="H6" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G6)&gt;=70, "yes", "no")</f>
@@ -2556,41 +1843,44 @@
         <f>IF(C6&lt;=1859,"T1",IF(C6&lt;=1879,"T2",IF(C6&lt;=1899,"T3",IF(C6&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J6" s="5">
-        <v>73487</v>
+      <c r="J6" s="2">
+        <v>67609</v>
       </c>
       <c r="K6" s="2" t="str">
         <f>IF(J6="","",IF(J6="please add","",IF(J6&lt;=10000,"too short",IF(J6&lt;=50000,"short",IF(J6&lt;=100000,"medium",IF(J6&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="C7" s="3">
-        <v>1899</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>1918</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="2">
-        <v>1925</v>
+        <v>1934</v>
       </c>
       <c r="H7" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G7)&gt;=70, "yes", "no")</f>
@@ -2598,40 +1888,46 @@
       </c>
       <c r="I7" s="2" t="str">
         <f>IF(C7&lt;=1859,"T1",IF(C7&lt;=1879,"T2",IF(C7&lt;=1899,"T3",IF(C7&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J7" s="2">
-        <v>92531</v>
+        <v>70121</v>
       </c>
       <c r="K7" s="2" t="str">
         <f>IF(J7="","",IF(J7="please add","",IF(J7&lt;=10000,"too short",IF(J7&lt;=50000,"short",IF(J7&lt;=100000,"medium",IF(J7&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C8" s="3">
-        <v>1913</v>
+        <v>1919</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="G8" s="2">
-        <v>1939</v>
+        <v>1918</v>
       </c>
       <c r="H8" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G8)&gt;=70, "yes", "no")</f>
@@ -2642,55 +1938,55 @@
         <v>T4</v>
       </c>
       <c r="J8" s="2">
-        <v>114532</v>
+        <v>79195</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>IF(J8="","",IF(J8="please add","",IF(J8&lt;=10000,"too short",IF(J8&lt;=50000,"short",IF(J8&lt;=100000,"medium",IF(J8&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>medium</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2">
-        <v>1928</v>
+        <v>1968</v>
       </c>
       <c r="H9" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G9)&gt;=70, "yes", "no")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>IF(C9&lt;=1859,"T1",IF(C9&lt;=1879,"T2",IF(C9&lt;=1899,"T3",IF(C9&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J9" s="5">
-        <v>80314</v>
+      <c r="J9" s="2">
+        <v>37268</v>
       </c>
       <c r="K9" s="2" t="str">
         <f>IF(J9="","",IF(J9="please add","",IF(J9&lt;=10000,"too short",IF(J9&lt;=50000,"short",IF(J9&lt;=100000,"medium",IF(J9&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>18</v>
@@ -2699,35 +1995,38 @@
         <v>194</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1880</v>
+        <v>76</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1921</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="2">
-        <v>1901</v>
+        <v>1968</v>
       </c>
       <c r="H10" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G10)&gt;=70, "yes", "no")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>IF(C10&lt;=1859,"T1",IF(C10&lt;=1879,"T2",IF(C10&lt;=1899,"T3",IF(C10&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
-      </c>
-      <c r="J10" s="5">
-        <v>25970</v>
+        <v>beyond</v>
+      </c>
+      <c r="J10" s="2">
+        <v>25126</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>IF(J10="","",IF(J10="please add","",IF(J10&lt;=10000,"too short",IF(J10&lt;=50000,"short",IF(J10&lt;=100000,"medium",IF(J10&gt;100000,"long"))))))</f>
@@ -2740,39 +2039,45 @@
         <v>194</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3">
-        <v>1886</v>
+        <v>1920</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2">
-        <v>1890</v>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1969</v>
       </c>
       <c r="H11" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G11)&gt;=70, "yes", "no")</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>IF(C11&lt;=1859,"T1",IF(C11&lt;=1879,"T2",IF(C11&lt;=1899,"T3",IF(C11&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J11" s="5">
-        <v>30767</v>
+        <v>68956</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>IF(J11="","",IF(J11="please add","",IF(J11&lt;=10000,"too short",IF(J11&lt;=50000,"short",IF(J11&lt;=100000,"medium",IF(J11&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>18</v>
@@ -2781,27 +2086,27 @@
         <v>194</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1912</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1918</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" s="2">
-        <v>1928</v>
+        <v>1942</v>
       </c>
       <c r="H12" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G12)&gt;=70, "yes", "no")</f>
@@ -2812,11 +2117,11 @@
         <v>T4</v>
       </c>
       <c r="J12" s="5">
-        <v>79740</v>
+        <v>30370</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(J12="","",IF(J12="please add","",IF(J12&lt;=10000,"too short",IF(J12&lt;=50000,"short",IF(J12&lt;=100000,"medium",IF(J12&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>18</v>
@@ -2825,24 +2130,24 @@
         <v>194</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3">
-        <v>1882</v>
+        <v>1900</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>1890</v>
+        <v>1925</v>
       </c>
       <c r="H13" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G13)&gt;=70, "yes", "no")</f>
@@ -2850,10 +2155,10 @@
       </c>
       <c r="I13" s="2" t="str">
         <f>IF(C13&lt;=1859,"T1",IF(C13&lt;=1879,"T2",IF(C13&lt;=1899,"T3",IF(C13&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J13" s="5">
-        <v>88800</v>
+        <v>73487</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>IF(J13="","",IF(J13="please add","",IF(J13&lt;=10000,"too short",IF(J13&lt;=50000,"short",IF(J13&lt;=100000,"medium",IF(J13&gt;100000,"long"))))))</f>
@@ -2866,27 +2171,27 @@
         <v>194</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3">
-        <v>1917</v>
+        <v>1899</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>1939</v>
+        <v>1925</v>
       </c>
       <c r="H14" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G14)&gt;=70, "yes", "no")</f>
@@ -2894,14 +2199,14 @@
       </c>
       <c r="I14" s="2" t="str">
         <f>IF(C14&lt;=1859,"T1",IF(C14&lt;=1879,"T2",IF(C14&lt;=1899,"T3",IF(C14&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T3</v>
       </c>
       <c r="J14" s="2">
-        <v>12497</v>
+        <v>92531</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>IF(J14="","",IF(J14="please add","",IF(J14&lt;=10000,"too short",IF(J14&lt;=50000,"short",IF(J14&lt;=100000,"medium",IF(J14&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>18</v>
@@ -2910,24 +2215,21 @@
         <v>194</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="3">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="G15" s="2">
         <v>1939</v>
@@ -2941,11 +2243,11 @@
         <v>T4</v>
       </c>
       <c r="J15" s="2">
-        <v>16808</v>
+        <v>114532</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(J15="","",IF(J15="please add","",IF(J15&lt;=10000,"too short",IF(J15&lt;=50000,"short",IF(J15&lt;=100000,"medium",IF(J15&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>long</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>18</v>
@@ -2954,27 +2256,27 @@
         <v>194</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="H16" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G16)&gt;=70, "yes", "no")</f>
@@ -2984,12 +2286,12 @@
         <f>IF(C16&lt;=1859,"T1",IF(C16&lt;=1879,"T2",IF(C16&lt;=1899,"T3",IF(C16&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J16" s="2">
-        <v>21982</v>
+      <c r="J16" s="5">
+        <v>80314</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(J16="","",IF(J16="please add","",IF(J16&lt;=10000,"too short",IF(J16&lt;=50000,"short",IF(J16&lt;=100000,"medium",IF(J16&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>18</v>
@@ -2998,30 +2300,24 @@
         <v>194</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3">
         <v>1880</v>
       </c>
-      <c r="D17" s="2">
-        <v>1884</v>
-      </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="G17" s="2">
-        <v>1890</v>
+        <v>1901</v>
       </c>
       <c r="H17" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G17)&gt;=70, "yes", "no")</f>
@@ -3032,11 +2328,11 @@
         <v>T3</v>
       </c>
       <c r="J17" s="5">
-        <v>75238</v>
+        <v>25970</v>
       </c>
       <c r="K17" s="2" t="str">
         <f>IF(J17="","",IF(J17="please add","",IF(J17&lt;=10000,"too short",IF(J17&lt;=50000,"short",IF(J17&lt;=100000,"medium",IF(J17&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>18</v>
@@ -3045,24 +2341,24 @@
         <v>194</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>1898</v>
+        <v>1890</v>
       </c>
       <c r="H18" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G18)&gt;=70, "yes", "no")</f>
@@ -3073,7 +2369,7 @@
         <v>T3</v>
       </c>
       <c r="J18" s="5">
-        <v>22729</v>
+        <v>30767</v>
       </c>
       <c r="K18" s="2" t="str">
         <f>IF(J18="","",IF(J18="please add","",IF(J18&lt;=10000,"too short",IF(J18&lt;=50000,"short",IF(J18&lt;=100000,"medium",IF(J18&gt;100000,"long"))))))</f>
@@ -3086,24 +2382,27 @@
         <v>194</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1891</v>
+        <v>67</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1912</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G19" s="2">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="H19" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G19)&gt;=70, "yes", "no")</f>
@@ -3111,46 +2410,40 @@
       </c>
       <c r="I19" s="2" t="str">
         <f>IF(C19&lt;=1859,"T1",IF(C19&lt;=1879,"T2",IF(C19&lt;=1899,"T3",IF(C19&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J19" s="5">
-        <v>9015</v>
+        <v>79740</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>IF(J19="","",IF(J19="please add","",IF(J19&lt;=10000,"too short",IF(J19&lt;=50000,"short",IF(J19&lt;=100000,"medium",IF(J19&gt;100000,"long"))))))</f>
-        <v>too short</v>
+        <v>medium</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3">
-        <v>1906</v>
+        <v>1882</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G20" s="2">
-        <v>1924</v>
+        <v>1890</v>
       </c>
       <c r="H20" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G20)&gt;=70, "yes", "no")</f>
@@ -3158,34 +2451,34 @@
       </c>
       <c r="I20" s="2" t="str">
         <f>IF(C20&lt;=1859,"T1",IF(C20&lt;=1879,"T2",IF(C20&lt;=1899,"T3",IF(C20&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T3</v>
       </c>
       <c r="J20" s="5">
-        <v>47104</v>
+        <v>88800</v>
       </c>
       <c r="K20" s="2" t="str">
         <f>IF(J20="","",IF(J20="please add","",IF(J20&lt;=10000,"too short",IF(J20&lt;=50000,"short",IF(J20&lt;=100000,"medium",IF(J20&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>21</v>
@@ -3194,7 +2487,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="2">
-        <v>1916</v>
+        <v>1939</v>
       </c>
       <c r="H21" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G21)&gt;=70, "yes", "no")</f>
@@ -3205,7 +2498,7 @@
         <v>T4</v>
       </c>
       <c r="J21" s="2">
-        <v>28754</v>
+        <v>12497</v>
       </c>
       <c r="K21" s="2" t="str">
         <f>IF(J21="","",IF(J21="please add","",IF(J21&lt;=10000,"too short",IF(J21&lt;=50000,"short",IF(J21&lt;=100000,"medium",IF(J21&gt;100000,"long"))))))</f>
@@ -3215,30 +2508,30 @@
         <v>18</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1921</v>
+        <v>171</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1918</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2">
-        <v>1924</v>
+        <v>1939</v>
       </c>
       <c r="H22" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G22)&gt;=70, "yes", "no")</f>
@@ -3246,46 +2539,43 @@
       </c>
       <c r="I22" s="2" t="str">
         <f>IF(C22&lt;=1859,"T1",IF(C22&lt;=1879,"T2",IF(C22&lt;=1899,"T3",IF(C22&lt;=1920,"T4","beyond"))))</f>
-        <v>beyond</v>
+        <v>T4</v>
       </c>
       <c r="J22" s="2">
-        <v>110315</v>
+        <v>16808</v>
       </c>
       <c r="K22" s="2" t="str">
         <f>IF(J22="","",IF(J22="please add","",IF(J22&lt;=10000,"too short",IF(J22&lt;=50000,"short",IF(J22&lt;=100000,"medium",IF(J22&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>short</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2">
-        <v>1933</v>
+        <v>1916</v>
       </c>
       <c r="H23" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G23)&gt;=70, "yes", "no")</f>
@@ -3295,41 +2585,44 @@
         <f>IF(C23&lt;=1859,"T1",IF(C23&lt;=1879,"T2",IF(C23&lt;=1899,"T3",IF(C23&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J23" s="5">
-        <v>52470</v>
+      <c r="J23" s="2">
+        <v>21982</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>IF(J23="","",IF(J23="please add","",IF(J23&lt;=10000,"too short",IF(J23&lt;=50000,"short",IF(J23&lt;=100000,"medium",IF(J23&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1924</v>
+        <v>130</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1880</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1884</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G24" s="2">
-        <v>1942</v>
+        <v>1890</v>
       </c>
       <c r="H24" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G24)&gt;=70, "yes", "no")</f>
@@ -3337,46 +2630,40 @@
       </c>
       <c r="I24" s="2" t="str">
         <f>IF(C24&lt;=1859,"T1",IF(C24&lt;=1879,"T2",IF(C24&lt;=1899,"T3",IF(C24&lt;=1920,"T4","beyond"))))</f>
-        <v>beyond</v>
+        <v>T3</v>
       </c>
       <c r="J24" s="5">
-        <v>111722</v>
+        <v>75238</v>
       </c>
       <c r="K24" s="2" t="str">
         <f>IF(J24="","",IF(J24="please add","",IF(J24&lt;=10000,"too short",IF(J24&lt;=50000,"short",IF(J24&lt;=100000,"medium",IF(J24&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>medium</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1924</v>
+        <v>118</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1884</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G25" s="2">
-        <v>1942</v>
+        <v>1898</v>
       </c>
       <c r="H25" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G25)&gt;=70, "yes", "no")</f>
@@ -3384,46 +2671,40 @@
       </c>
       <c r="I25" s="2" t="str">
         <f>IF(C25&lt;=1859,"T1",IF(C25&lt;=1879,"T2",IF(C25&lt;=1899,"T3",IF(C25&lt;=1920,"T4","beyond"))))</f>
-        <v>beyond</v>
+        <v>T3</v>
       </c>
       <c r="J25" s="5">
-        <v>122684</v>
+        <v>22729</v>
       </c>
       <c r="K25" s="2" t="str">
         <f>IF(J25="","",IF(J25="please add","",IF(J25&lt;=10000,"too short",IF(J25&lt;=50000,"short",IF(J25&lt;=100000,"medium",IF(J25&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>short</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C26" s="3">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G26" s="2">
-        <v>1947</v>
+        <v>1924</v>
       </c>
       <c r="H26" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G26)&gt;=70, "yes", "no")</f>
@@ -3434,11 +2715,11 @@
         <v>T3</v>
       </c>
       <c r="J26" s="5">
-        <v>58249</v>
+        <v>9015</v>
       </c>
       <c r="K26" s="2" t="str">
         <f>IF(J26="","",IF(J26="please add","",IF(J26&lt;=10000,"too short",IF(J26&lt;=50000,"short",IF(J26&lt;=100000,"medium",IF(J26&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>too short</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>18</v>
@@ -3447,21 +2728,21 @@
         <v>198</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C27" s="3">
-        <v>1909</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2005</v>
+        <v>1906</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
@@ -3470,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="2">
-        <v>1944</v>
+        <v>1924</v>
       </c>
       <c r="H27" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G27)&gt;=70, "yes", "no")</f>
@@ -3480,8 +2761,8 @@
         <f>IF(C27&lt;=1859,"T1",IF(C27&lt;=1879,"T2",IF(C27&lt;=1899,"T3",IF(C27&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J27" s="2">
-        <v>34368</v>
+      <c r="J27" s="5">
+        <v>47104</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>IF(J27="","",IF(J27="please add","",IF(J27&lt;=10000,"too short",IF(J27&lt;=50000,"short",IF(J27&lt;=100000,"medium",IF(J27&gt;100000,"long"))))))</f>
@@ -3491,30 +2772,30 @@
         <v>18</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
-        <v>1886</v>
+        <v>1914</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2">
-        <v>1901</v>
+        <v>1916</v>
       </c>
       <c r="H28" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G28)&gt;=70, "yes", "no")</f>
@@ -3522,34 +2803,34 @@
       </c>
       <c r="I28" s="2" t="str">
         <f>IF(C28&lt;=1859,"T1",IF(C28&lt;=1879,"T2",IF(C28&lt;=1899,"T3",IF(C28&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
-      </c>
-      <c r="J28" s="5">
-        <v>69653</v>
+        <v>T4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>28754</v>
       </c>
       <c r="K28" s="2" t="str">
         <f>IF(J28="","",IF(J28="please add","",IF(J28&lt;=10000,"too short",IF(J28&lt;=50000,"short",IF(J28&lt;=100000,"medium",IF(J28&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1886</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1921</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
@@ -3558,7 +2839,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="2">
-        <v>1890</v>
+        <v>1924</v>
       </c>
       <c r="H29" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G29)&gt;=70, "yes", "no")</f>
@@ -3566,46 +2847,46 @@
       </c>
       <c r="I29" s="2" t="str">
         <f>IF(C29&lt;=1859,"T1",IF(C29&lt;=1879,"T2",IF(C29&lt;=1899,"T3",IF(C29&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
-      </c>
-      <c r="J29" s="5">
-        <v>94405</v>
+        <v>beyond</v>
+      </c>
+      <c r="J29" s="2">
+        <v>110315</v>
       </c>
       <c r="K29" s="2" t="str">
         <f>IF(J29="","",IF(J29="please add","",IF(J29&lt;=10000,"too short",IF(J29&lt;=50000,"short",IF(J29&lt;=100000,"medium",IF(J29&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>long</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="O29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C30" s="3">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G30" s="2">
-        <v>1925</v>
+        <v>1933</v>
       </c>
       <c r="H30" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G30)&gt;=70, "yes", "no")</f>
@@ -3616,7 +2897,7 @@
         <v>T4</v>
       </c>
       <c r="J30" s="5">
-        <v>54068</v>
+        <v>52470</v>
       </c>
       <c r="K30" s="2" t="str">
         <f>IF(J30="","",IF(J30="please add","",IF(J30&lt;=10000,"too short",IF(J30&lt;=50000,"short",IF(J30&lt;=100000,"medium",IF(J30&gt;100000,"long"))))))</f>
@@ -3626,21 +2907,21 @@
         <v>18</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1911</v>
+        <v>61</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1924</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
@@ -3649,7 +2930,7 @@
         <v>14</v>
       </c>
       <c r="G31" s="2">
-        <v>1928</v>
+        <v>1942</v>
       </c>
       <c r="H31" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G31)&gt;=70, "yes", "no")</f>
@@ -3657,10 +2938,10 @@
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(C31&lt;=1859,"T1",IF(C31&lt;=1879,"T2",IF(C31&lt;=1899,"T3",IF(C31&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>beyond</v>
       </c>
       <c r="J31" s="5">
-        <v>150157</v>
+        <v>111722</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>IF(J31="","",IF(J31="please add","",IF(J31&lt;=10000,"too short",IF(J31&lt;=50000,"short",IF(J31&lt;=100000,"medium",IF(J31&gt;100000,"long"))))))</f>
@@ -3670,27 +2951,33 @@
         <v>18</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1880</v>
+        <v>62</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1924</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G32" s="2">
-        <v>1901</v>
+        <v>1942</v>
       </c>
       <c r="H32" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G32)&gt;=70, "yes", "no")</f>
@@ -3698,43 +2985,46 @@
       </c>
       <c r="I32" s="2" t="str">
         <f>IF(C32&lt;=1859,"T1",IF(C32&lt;=1879,"T2",IF(C32&lt;=1899,"T3",IF(C32&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>beyond</v>
       </c>
       <c r="J32" s="5">
-        <v>60869</v>
+        <v>122684</v>
       </c>
       <c r="K32" s="2" t="str">
         <f>IF(J32="","",IF(J32="please add","",IF(J32&lt;=10000,"too short",IF(J32&lt;=50000,"short",IF(J32&lt;=100000,"medium",IF(J32&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>long</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>290</v>
+        <v>224</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C33" s="3">
-        <v>1884</v>
+        <v>1893</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2">
-        <v>1898</v>
+        <v>1947</v>
       </c>
       <c r="H33" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G33)&gt;=70, "yes", "no")</f>
@@ -3745,40 +3035,43 @@
         <v>T3</v>
       </c>
       <c r="J33" s="5">
-        <v>27826</v>
+        <v>58249</v>
       </c>
       <c r="K33" s="2" t="str">
         <f>IF(J33="","",IF(J33="please add","",IF(J33&lt;=10000,"too short",IF(J33&lt;=50000,"short",IF(J33&lt;=100000,"medium",IF(J33&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C34" s="3">
-        <v>1918</v>
+        <v>1909</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2005</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="2">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="H34" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G34)&gt;=70, "yes", "no")</f>
@@ -3788,41 +3081,41 @@
         <f>IF(C34&lt;=1859,"T1",IF(C34&lt;=1879,"T2",IF(C34&lt;=1899,"T3",IF(C34&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J34" s="5">
-        <v>76484</v>
+      <c r="J34" s="2">
+        <v>34368</v>
       </c>
       <c r="K34" s="2" t="str">
         <f>IF(J34="","",IF(J34="please add","",IF(J34&lt;=10000,"too short",IF(J34&lt;=50000,"short",IF(J34&lt;=100000,"medium",IF(J34&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3">
-        <v>1910</v>
+        <v>1886</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G35" s="2">
-        <v>1941</v>
+        <v>1901</v>
       </c>
       <c r="H35" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G35)&gt;=70, "yes", "no")</f>
@@ -3830,10 +3123,10 @@
       </c>
       <c r="I35" s="2" t="str">
         <f>IF(C35&lt;=1859,"T1",IF(C35&lt;=1879,"T2",IF(C35&lt;=1899,"T3",IF(C35&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T3</v>
       </c>
       <c r="J35" s="5">
-        <v>81053</v>
+        <v>69653</v>
       </c>
       <c r="K35" s="2" t="str">
         <f>IF(J35="","",IF(J35="please add","",IF(J35&lt;=10000,"too short",IF(J35&lt;=50000,"short",IF(J35&lt;=100000,"medium",IF(J35&gt;100000,"long"))))))</f>
@@ -3846,27 +3139,27 @@
         <v>200</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3">
         <v>1915</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="2">
-        <v>1941</v>
+        <v>1925</v>
       </c>
       <c r="H36" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G36)&gt;=70, "yes", "no")</f>
@@ -3877,7 +3170,7 @@
         <v>T4</v>
       </c>
       <c r="J36" s="5">
-        <v>77211</v>
+        <v>54068</v>
       </c>
       <c r="K36" s="2" t="str">
         <f>IF(J36="","",IF(J36="please add","",IF(J36&lt;=10000,"too short",IF(J36&lt;=50000,"short",IF(J36&lt;=100000,"medium",IF(J36&gt;100000,"long"))))))</f>
@@ -3890,24 +3183,27 @@
         <v>200</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3">
-        <v>1880</v>
+        <v>1911</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G37" s="2">
-        <v>1898</v>
+        <v>1928</v>
       </c>
       <c r="H37" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G37)&gt;=70, "yes", "no")</f>
@@ -3915,14 +3211,14 @@
       </c>
       <c r="I37" s="2" t="str">
         <f>IF(C37&lt;=1859,"T1",IF(C37&lt;=1879,"T2",IF(C37&lt;=1899,"T3",IF(C37&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J37" s="5">
-        <v>41845</v>
+        <v>150157</v>
       </c>
       <c r="K37" s="2" t="str">
         <f>IF(J37="","",IF(J37="please add","",IF(J37&lt;=10000,"too short",IF(J37&lt;=50000,"short",IF(J37&lt;=100000,"medium",IF(J37&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>long</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>18</v>
@@ -3931,24 +3227,24 @@
         <v>200</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C38" s="3">
-        <v>1892</v>
+        <v>1880</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="2">
-        <v>1916</v>
+        <v>1901</v>
       </c>
       <c r="H38" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G38)&gt;=70, "yes", "no")</f>
@@ -3959,11 +3255,11 @@
         <v>T3</v>
       </c>
       <c r="J38" s="5">
-        <v>44524</v>
+        <v>60869</v>
       </c>
       <c r="K38" s="2" t="str">
         <f>IF(J38="","",IF(J38="please add","",IF(J38&lt;=10000,"too short",IF(J38&lt;=50000,"short",IF(J38&lt;=100000,"medium",IF(J38&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>18</v>
@@ -3972,18 +3268,18 @@
         <v>200</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3">
-        <v>1910</v>
+        <v>1884</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>13</v>
@@ -3992,7 +3288,7 @@
         <v>24</v>
       </c>
       <c r="G39" s="2">
-        <v>1947</v>
+        <v>1898</v>
       </c>
       <c r="H39" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G39)&gt;=70, "yes", "no")</f>
@@ -4000,14 +3296,14 @@
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(C39&lt;=1859,"T1",IF(C39&lt;=1879,"T2",IF(C39&lt;=1899,"T3",IF(C39&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T3</v>
       </c>
       <c r="J39" s="5">
-        <v>97111</v>
+        <v>27826</v>
       </c>
       <c r="K39" s="2" t="str">
         <f>IF(J39="","",IF(J39="please add","",IF(J39&lt;=10000,"too short",IF(J39&lt;=50000,"short",IF(J39&lt;=100000,"medium",IF(J39&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>18</v>
@@ -4016,24 +3312,27 @@
         <v>200</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="C40" s="3">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G40" s="2">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="H40" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G40)&gt;=70, "yes", "no")</f>
@@ -4043,8 +3342,8 @@
         <f>IF(C40&lt;=1859,"T1",IF(C40&lt;=1879,"T2",IF(C40&lt;=1899,"T3",IF(C40&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J40" s="2">
-        <v>67741</v>
+      <c r="J40" s="5">
+        <v>76484</v>
       </c>
       <c r="K40" s="2" t="str">
         <f>IF(J40="","",IF(J40="please add","",IF(J40&lt;=10000,"too short",IF(J40&lt;=50000,"short",IF(J40&lt;=100000,"medium",IF(J40&gt;100000,"long"))))))</f>
@@ -4057,27 +3356,27 @@
         <v>200</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="2">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="H41" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G41)&gt;=70, "yes", "no")</f>
@@ -4085,10 +3384,10 @@
       </c>
       <c r="I41" s="2" t="str">
         <f>IF(C41&lt;=1859,"T1",IF(C41&lt;=1879,"T2",IF(C41&lt;=1899,"T3",IF(C41&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J41" s="5">
-        <v>60972</v>
+        <v>81053</v>
       </c>
       <c r="K41" s="2" t="str">
         <f>IF(J41="","",IF(J41="please add","",IF(J41&lt;=10000,"too short",IF(J41&lt;=50000,"short",IF(J41&lt;=100000,"medium",IF(J41&gt;100000,"long"))))))</f>
@@ -4101,24 +3400,27 @@
         <v>200</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C42" s="3">
-        <v>1890</v>
+        <v>1915</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G42" s="2">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="H42" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G42)&gt;=70, "yes", "no")</f>
@@ -4126,10 +3428,10 @@
       </c>
       <c r="I42" s="2" t="str">
         <f>IF(C42&lt;=1859,"T1",IF(C42&lt;=1879,"T2",IF(C42&lt;=1899,"T3",IF(C42&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J42" s="5">
-        <v>60599</v>
+        <v>77211</v>
       </c>
       <c r="K42" s="2" t="str">
         <f>IF(J42="","",IF(J42="please add","",IF(J42&lt;=10000,"too short",IF(J42&lt;=50000,"short",IF(J42&lt;=100000,"medium",IF(J42&gt;100000,"long"))))))</f>
@@ -4142,27 +3444,24 @@
         <v>200</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C43" s="3">
-        <v>1906</v>
+        <v>1892</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G43" s="2">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="H43" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G43)&gt;=70, "yes", "no")</f>
@@ -4170,43 +3469,43 @@
       </c>
       <c r="I43" s="2" t="str">
         <f>IF(C43&lt;=1859,"T1",IF(C43&lt;=1879,"T2",IF(C43&lt;=1899,"T3",IF(C43&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
-      </c>
-      <c r="J43" s="2">
-        <v>60471</v>
+        <v>T3</v>
+      </c>
+      <c r="J43" s="5">
+        <v>44524</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(J43="","",IF(J43="please add","",IF(J43&lt;=10000,"too short",IF(J43&lt;=50000,"short",IF(J43&lt;=100000,"medium",IF(J43&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C44" s="3">
-        <v>1850</v>
+        <v>1910</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G44" s="2">
-        <v>1854</v>
+        <v>1947</v>
       </c>
       <c r="H44" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G44)&gt;=70, "yes", "no")</f>
@@ -4214,43 +3513,43 @@
       </c>
       <c r="I44" s="2" t="str">
         <f>IF(C44&lt;=1859,"T1",IF(C44&lt;=1879,"T2",IF(C44&lt;=1899,"T3",IF(C44&lt;=1920,"T4","beyond"))))</f>
-        <v>T1</v>
-      </c>
-      <c r="J44" s="2">
-        <v>165536</v>
+        <v>T4</v>
+      </c>
+      <c r="J44" s="5">
+        <v>97111</v>
       </c>
       <c r="K44" s="2" t="str">
         <f>IF(J44="","",IF(J44="please add","",IF(J44&lt;=10000,"too short",IF(J44&lt;=50000,"short",IF(J44&lt;=100000,"medium",IF(J44&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>medium</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="C45" s="3">
-        <v>1858</v>
+        <v>1890</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2">
-        <v>1865</v>
+        <v>1947</v>
       </c>
       <c r="H45" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G45)&gt;=70, "yes", "no")</f>
@@ -4258,46 +3557,40 @@
       </c>
       <c r="I45" s="2" t="str">
         <f>IF(C45&lt;=1859,"T1",IF(C45&lt;=1879,"T2",IF(C45&lt;=1899,"T3",IF(C45&lt;=1920,"T4","beyond"))))</f>
-        <v>T1</v>
-      </c>
-      <c r="J45" s="2">
-        <v>25213</v>
+        <v>T3</v>
+      </c>
+      <c r="J45" s="5">
+        <v>60972</v>
       </c>
       <c r="K45" s="2" t="str">
         <f>IF(J45="","",IF(J45="please add","",IF(J45&lt;=10000,"too short",IF(J45&lt;=50000,"short",IF(J45&lt;=100000,"medium",IF(J45&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C46" s="3">
-        <v>1910</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>134</v>
+        <v>1890</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G46" s="2">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="H46" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G46)&gt;=70, "yes", "no")</f>
@@ -4305,10 +3598,10 @@
       </c>
       <c r="I46" s="2" t="str">
         <f>IF(C46&lt;=1859,"T1",IF(C46&lt;=1879,"T2",IF(C46&lt;=1899,"T3",IF(C46&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
-      </c>
-      <c r="J46" s="2">
-        <v>90029</v>
+        <v>T3</v>
+      </c>
+      <c r="J46" s="5">
+        <v>60599</v>
       </c>
       <c r="K46" s="2" t="str">
         <f>IF(J46="","",IF(J46="please add","",IF(J46&lt;=10000,"too short",IF(J46&lt;=50000,"short",IF(J46&lt;=100000,"medium",IF(J46&gt;100000,"long"))))))</f>
@@ -4318,30 +3611,30 @@
         <v>18</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C47" s="3">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G47" s="2">
-        <v>1937</v>
+        <v>1919</v>
       </c>
       <c r="H47" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G47)&gt;=70, "yes", "no")</f>
@@ -4352,7 +3645,7 @@
         <v>T4</v>
       </c>
       <c r="J47" s="2">
-        <v>79181</v>
+        <v>60471</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(J47="","",IF(J47="please add","",IF(J47&lt;=10000,"too short",IF(J47&lt;=50000,"short",IF(J47&lt;=100000,"medium",IF(J47&gt;100000,"long"))))))</f>
@@ -4365,24 +3658,27 @@
         <v>202</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3">
-        <v>1912</v>
+        <v>1850</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G48" s="2">
-        <v>1927</v>
+        <v>1854</v>
       </c>
       <c r="H48" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G48)&gt;=70, "yes", "no")</f>
@@ -4390,40 +3686,43 @@
       </c>
       <c r="I48" s="2" t="str">
         <f>IF(C48&lt;=1859,"T1",IF(C48&lt;=1879,"T2",IF(C48&lt;=1899,"T3",IF(C48&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
-      </c>
-      <c r="J48" s="5">
-        <v>82874</v>
+        <v>T1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>165536</v>
       </c>
       <c r="K48" s="2" t="str">
         <f>IF(J48="","",IF(J48="please add","",IF(J48&lt;=10000,"too short",IF(J48&lt;=50000,"short",IF(J48&lt;=100000,"medium",IF(J48&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>long</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C49" s="3">
-        <v>1906</v>
+        <v>1858</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F49" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G49" s="2">
-        <v>1937</v>
+        <v>1865</v>
       </c>
       <c r="H49" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G49)&gt;=70, "yes", "no")</f>
@@ -4431,40 +3730,46 @@
       </c>
       <c r="I49" s="2" t="str">
         <f>IF(C49&lt;=1859,"T1",IF(C49&lt;=1879,"T2",IF(C49&lt;=1899,"T3",IF(C49&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T1</v>
       </c>
       <c r="J49" s="2">
-        <v>96480</v>
+        <v>25213</v>
       </c>
       <c r="K49" s="2" t="str">
         <f>IF(J49="","",IF(J49="please add","",IF(J49&lt;=10000,"too short",IF(J49&lt;=50000,"short",IF(J49&lt;=100000,"medium",IF(J49&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="C50" s="3">
-        <v>1907</v>
+        <v>1910</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G50" s="2">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="H50" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G50)&gt;=70, "yes", "no")</f>
@@ -4475,20 +3780,20 @@
         <v>T4</v>
       </c>
       <c r="J50" s="2">
-        <v>19561</v>
+        <v>90029</v>
       </c>
       <c r="K50" s="2" t="str">
         <f>IF(J50="","",IF(J50="please add","",IF(J50&lt;=10000,"too short",IF(J50&lt;=50000,"short",IF(J50&lt;=100000,"medium",IF(J50&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -4496,13 +3801,16 @@
         <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3">
-        <v>1915</v>
+        <v>1904</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G51" s="2">
         <v>1937</v>
@@ -4516,37 +3824,34 @@
         <v>T4</v>
       </c>
       <c r="J51" s="2">
-        <v>63642</v>
+        <v>79181</v>
       </c>
       <c r="K51" s="2" t="str">
         <f>IF(J51="","",IF(J51="please add","",IF(J51&lt;=10000,"too short",IF(J51&lt;=50000,"short",IF(J51&lt;=100000,"medium",IF(J51&gt;100000,"long"))))))</f>
         <v>medium</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C52" s="3">
-        <v>1920</v>
+        <v>1912</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2">
         <v>1927</v>
@@ -4559,12 +3864,12 @@
         <f>IF(C52&lt;=1859,"T1",IF(C52&lt;=1879,"T2",IF(C52&lt;=1899,"T3",IF(C52&lt;=1920,"T4","beyond"))))</f>
         <v>T4</v>
       </c>
-      <c r="J52" s="2">
-        <v>36750</v>
+      <c r="J52" s="5">
+        <v>82874</v>
       </c>
       <c r="K52" s="2" t="str">
         <f>IF(J52="","",IF(J52="please add","",IF(J52&lt;=10000,"too short",IF(J52&lt;=50000,"short",IF(J52&lt;=100000,"medium",IF(J52&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>15</v>
@@ -4573,24 +3878,24 @@
         <v>192</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C53" s="3">
-        <v>1916</v>
+        <v>1906</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="2">
-        <v>1947</v>
+        <v>1937</v>
       </c>
       <c r="H53" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G53)&gt;=70, "yes", "no")</f>
@@ -4601,11 +3906,11 @@
         <v>T4</v>
       </c>
       <c r="J53" s="2">
-        <v>35213</v>
+        <v>96480</v>
       </c>
       <c r="K53" s="2" t="str">
         <f>IF(J53="","",IF(J53="please add","",IF(J53&lt;=10000,"too short",IF(J53&lt;=50000,"short",IF(J53&lt;=100000,"medium",IF(J53&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>15</v>
@@ -4614,7 +3919,7 @@
         <v>192</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -4622,10 +3927,10 @@
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" s="3">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>13</v>
@@ -4642,7 +3947,7 @@
         <v>T4</v>
       </c>
       <c r="J54" s="2">
-        <v>38635</v>
+        <v>19561</v>
       </c>
       <c r="K54" s="2" t="str">
         <f>IF(J54="","",IF(J54="please add","",IF(J54&lt;=10000,"too short",IF(J54&lt;=50000,"short",IF(J54&lt;=100000,"medium",IF(J54&gt;100000,"long"))))))</f>
@@ -4655,27 +3960,24 @@
         <v>192</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C55" s="3">
-        <v>1902</v>
+        <v>1915</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G55" s="2">
-        <v>1924</v>
+        <v>1937</v>
       </c>
       <c r="H55" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G55)&gt;=70, "yes", "no")</f>
@@ -4686,11 +3988,11 @@
         <v>T4</v>
       </c>
       <c r="J55" s="2">
-        <v>48583</v>
+        <v>63642</v>
       </c>
       <c r="K55" s="2" t="str">
         <f>IF(J55="","",IF(J55="please add","",IF(J55&lt;=10000,"too short",IF(J55&lt;=50000,"short",IF(J55&lt;=100000,"medium",IF(J55&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>15</v>
@@ -4699,27 +4001,27 @@
         <v>192</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C56" s="3">
-        <v>1913</v>
+        <v>1920</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G56" s="2">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="H56" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G56)&gt;=70, "yes", "no")</f>
@@ -4730,11 +4032,11 @@
         <v>T4</v>
       </c>
       <c r="J56" s="2">
-        <v>67712</v>
+        <v>36750</v>
       </c>
       <c r="K56" s="2" t="str">
         <f>IF(J56="","",IF(J56="please add","",IF(J56&lt;=10000,"too short",IF(J56&lt;=50000,"short",IF(J56&lt;=100000,"medium",IF(J56&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>15</v>
@@ -4743,24 +4045,24 @@
         <v>192</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C57" s="3">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="2">
-        <v>1924</v>
+        <v>1947</v>
       </c>
       <c r="H57" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G57)&gt;=70, "yes", "no")</f>
@@ -4771,7 +4073,7 @@
         <v>T4</v>
       </c>
       <c r="J57" s="2">
-        <v>36993</v>
+        <v>35213</v>
       </c>
       <c r="K57" s="2" t="str">
         <f>IF(J57="","",IF(J57="please add","",IF(J57&lt;=10000,"too short",IF(J57&lt;=50000,"short",IF(J57&lt;=100000,"medium",IF(J57&gt;100000,"long"))))))</f>
@@ -4784,24 +4086,24 @@
         <v>192</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C58" s="3">
-        <v>1898</v>
+        <v>1913</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="2">
-        <v>1924</v>
+        <v>1947</v>
       </c>
       <c r="H58" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G58)&gt;=70, "yes", "no")</f>
@@ -4809,14 +4111,14 @@
       </c>
       <c r="I58" s="2" t="str">
         <f>IF(C58&lt;=1859,"T1",IF(C58&lt;=1879,"T2",IF(C58&lt;=1899,"T3",IF(C58&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J58" s="2">
-        <v>102886</v>
+        <v>38635</v>
       </c>
       <c r="K58" s="2" t="str">
         <f>IF(J58="","",IF(J58="please add","",IF(J58&lt;=10000,"too short",IF(J58&lt;=50000,"short",IF(J58&lt;=100000,"medium",IF(J58&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>short</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>15</v>
@@ -4825,27 +4127,27 @@
         <v>192</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C59" s="3">
-        <v>1913</v>
+        <v>1902</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G59" s="2">
-        <v>1939</v>
+        <v>1924</v>
       </c>
       <c r="H59" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G59)&gt;=70, "yes", "no")</f>
@@ -4856,11 +4158,11 @@
         <v>T4</v>
       </c>
       <c r="J59" s="2">
-        <v>53768</v>
+        <v>48583</v>
       </c>
       <c r="K59" s="2" t="str">
         <f>IF(J59="","",IF(J59="please add","",IF(J59&lt;=10000,"too short",IF(J59&lt;=50000,"short",IF(J59&lt;=100000,"medium",IF(J59&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>15</v>
@@ -4869,18 +4171,18 @@
         <v>192</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C60" s="3">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>13</v>
@@ -4889,7 +4191,7 @@
         <v>24</v>
       </c>
       <c r="G60" s="2">
-        <v>1939</v>
+        <v>1924</v>
       </c>
       <c r="H60" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G60)&gt;=70, "yes", "no")</f>
@@ -4900,7 +4202,7 @@
         <v>T4</v>
       </c>
       <c r="J60" s="2">
-        <v>61824</v>
+        <v>67712</v>
       </c>
       <c r="K60" s="2" t="str">
         <f>IF(J60="","",IF(J60="please add","",IF(J60&lt;=10000,"too short",IF(J60&lt;=50000,"short",IF(J60&lt;=100000,"medium",IF(J60&gt;100000,"long"))))))</f>
@@ -4913,27 +4215,24 @@
         <v>192</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C61" s="3">
-        <v>1911</v>
+        <v>1919</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="2">
-        <v>1908</v>
+        <v>1924</v>
       </c>
       <c r="H61" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G61)&gt;=70, "yes", "no")</f>
@@ -4944,11 +4243,11 @@
         <v>T4</v>
       </c>
       <c r="J61" s="2">
-        <v>53870</v>
+        <v>36993</v>
       </c>
       <c r="K61" s="2" t="str">
         <f>IF(J61="","",IF(J61="please add","",IF(J61&lt;=10000,"too short",IF(J61&lt;=50000,"short",IF(J61&lt;=100000,"medium",IF(J61&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>15</v>
@@ -4957,24 +4256,24 @@
         <v>192</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1911</v>
+        <v>47</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1898</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="2">
-        <v>1937</v>
+        <v>1924</v>
       </c>
       <c r="H62" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G62)&gt;=70, "yes", "no")</f>
@@ -4982,14 +4281,14 @@
       </c>
       <c r="I62" s="2" t="str">
         <f>IF(C62&lt;=1859,"T1",IF(C62&lt;=1879,"T2",IF(C62&lt;=1899,"T3",IF(C62&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T3</v>
       </c>
       <c r="J62" s="2">
-        <v>67609</v>
+        <v>102886</v>
       </c>
       <c r="K62" s="2" t="str">
         <f>IF(J62="","",IF(J62="please add","",IF(J62&lt;=10000,"too short",IF(J62&lt;=50000,"short",IF(J62&lt;=100000,"medium",IF(J62&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>long</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>15</v>
@@ -4998,24 +4297,27 @@
         <v>192</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F63" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G63" s="2">
-        <v>1933</v>
+        <v>1939</v>
       </c>
       <c r="H63" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G63)&gt;=70, "yes", "no")</f>
@@ -5026,11 +4328,11 @@
         <v>T4</v>
       </c>
       <c r="J63" s="2">
-        <v>33923</v>
+        <v>61824</v>
       </c>
       <c r="K63" s="2" t="str">
         <f>IF(J63="","",IF(J63="please add","",IF(J63&lt;=10000,"too short",IF(J63&lt;=50000,"short",IF(J63&lt;=100000,"medium",IF(J63&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>15</v>
@@ -5039,27 +4341,27 @@
         <v>192</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C64" s="3">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="2">
-        <v>1933</v>
+        <v>1908</v>
       </c>
       <c r="H64" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G64)&gt;=70, "yes", "no")</f>
@@ -5070,11 +4372,11 @@
         <v>T4</v>
       </c>
       <c r="J64" s="2">
-        <v>112581</v>
+        <v>53870</v>
       </c>
       <c r="K64" s="2" t="str">
         <f>IF(J64="","",IF(J64="please add","",IF(J64&lt;=10000,"too short",IF(J64&lt;=50000,"short",IF(J64&lt;=100000,"medium",IF(J64&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>medium</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>15</v>
@@ -5083,24 +4385,24 @@
         <v>192</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C65" s="3">
-        <v>1891</v>
+        <v>1907</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="2">
-        <v>1909</v>
+        <v>1933</v>
       </c>
       <c r="H65" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G65)&gt;=70, "yes", "no")</f>
@@ -5108,10 +4410,10 @@
       </c>
       <c r="I65" s="2" t="str">
         <f>IF(C65&lt;=1859,"T1",IF(C65&lt;=1879,"T2",IF(C65&lt;=1899,"T3",IF(C65&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J65" s="2">
-        <v>22754</v>
+        <v>33923</v>
       </c>
       <c r="K65" s="2" t="str">
         <f>IF(J65="","",IF(J65="please add","",IF(J65&lt;=10000,"too short",IF(J65&lt;=50000,"short",IF(J65&lt;=100000,"medium",IF(J65&gt;100000,"long"))))))</f>
@@ -5124,18 +4426,18 @@
         <v>192</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C66" s="3">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>13</v>
@@ -5144,7 +4446,7 @@
         <v>14</v>
       </c>
       <c r="G66" s="2">
-        <v>1944</v>
+        <v>1933</v>
       </c>
       <c r="H66" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G66)&gt;=70, "yes", "no")</f>
@@ -5155,11 +4457,11 @@
         <v>T4</v>
       </c>
       <c r="J66" s="2">
-        <v>72606</v>
+        <v>112581</v>
       </c>
       <c r="K66" s="2" t="str">
         <f>IF(J66="","",IF(J66="please add","",IF(J66&lt;=10000,"too short",IF(J66&lt;=50000,"short",IF(J66&lt;=100000,"medium",IF(J66&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>long</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>15</v>
@@ -5168,24 +4470,24 @@
         <v>192</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C67" s="3">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="2">
-        <v>1944</v>
+        <v>1909</v>
       </c>
       <c r="H67" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G67)&gt;=70, "yes", "no")</f>
@@ -5193,14 +4495,14 @@
       </c>
       <c r="I67" s="2" t="str">
         <f>IF(C67&lt;=1859,"T1",IF(C67&lt;=1879,"T2",IF(C67&lt;=1899,"T3",IF(C67&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T3</v>
       </c>
       <c r="J67" s="2">
-        <v>54604</v>
+        <v>22754</v>
       </c>
       <c r="K67" s="2" t="str">
         <f>IF(J67="","",IF(J67="please add","",IF(J67&lt;=10000,"too short",IF(J67&lt;=50000,"short",IF(J67&lt;=100000,"medium",IF(J67&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>15</v>
@@ -5209,21 +4511,24 @@
         <v>192</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" s="3">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G68" s="2">
         <v>1944</v>
@@ -5237,11 +4542,11 @@
         <v>T4</v>
       </c>
       <c r="J68" s="2">
-        <v>38505</v>
+        <v>72606</v>
       </c>
       <c r="K68" s="2" t="str">
         <f>IF(J68="","",IF(J68="please add","",IF(J68&lt;=10000,"too short",IF(J68&lt;=50000,"short",IF(J68&lt;=100000,"medium",IF(J68&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>15</v>
@@ -5250,24 +4555,21 @@
         <v>192</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="3">
-        <v>1920</v>
+        <v>1907</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G69" s="2">
         <v>1944</v>
@@ -5281,11 +4583,11 @@
         <v>T4</v>
       </c>
       <c r="J69" s="2">
-        <v>47747</v>
+        <v>54604</v>
       </c>
       <c r="K69" s="2" t="str">
         <f>IF(J69="","",IF(J69="please add","",IF(J69&lt;=10000,"too short",IF(J69&lt;=50000,"short",IF(J69&lt;=100000,"medium",IF(J69&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>15</v>
@@ -5294,27 +4596,24 @@
         <v>192</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C70" s="3">
-        <v>1891</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>141</v>
+        <v>1905</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G70" s="2">
-        <v>1915</v>
+        <v>1944</v>
       </c>
       <c r="H70" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G70)&gt;=70, "yes", "no")</f>
@@ -5322,10 +4621,10 @@
       </c>
       <c r="I70" s="2" t="str">
         <f>IF(C70&lt;=1859,"T1",IF(C70&lt;=1879,"T2",IF(C70&lt;=1899,"T3",IF(C70&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J70" s="2">
-        <v>37096</v>
+        <v>38505</v>
       </c>
       <c r="K70" s="2" t="str">
         <f>IF(J70="","",IF(J70="please add","",IF(J70&lt;=10000,"too short",IF(J70&lt;=50000,"short",IF(J70&lt;=100000,"medium",IF(J70&gt;100000,"long"))))))</f>
@@ -5338,24 +4637,27 @@
         <v>192</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C71" s="3">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G71" s="2">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="H71" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G71)&gt;=70, "yes", "no")</f>
@@ -5366,11 +4668,11 @@
         <v>T4</v>
       </c>
       <c r="J71" s="2">
-        <v>66783</v>
+        <v>47747</v>
       </c>
       <c r="K71" s="2" t="str">
         <f>IF(J71="","",IF(J71="please add","",IF(J71&lt;=10000,"too short",IF(J71&lt;=50000,"short",IF(J71&lt;=100000,"medium",IF(J71&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>15</v>
@@ -5379,24 +4681,27 @@
         <v>192</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C72" s="3">
-        <v>1919</v>
+        <v>1891</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2">
-        <v>1945</v>
+        <v>1915</v>
       </c>
       <c r="H72" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G72)&gt;=70, "yes", "no")</f>
@@ -5404,10 +4709,10 @@
       </c>
       <c r="I72" s="2" t="str">
         <f>IF(C72&lt;=1859,"T1",IF(C72&lt;=1879,"T2",IF(C72&lt;=1899,"T3",IF(C72&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T3</v>
       </c>
       <c r="J72" s="2">
-        <v>38298</v>
+        <v>37096</v>
       </c>
       <c r="K72" s="2" t="str">
         <f>IF(J72="","",IF(J72="please add","",IF(J72&lt;=10000,"too short",IF(J72&lt;=50000,"short",IF(J72&lt;=100000,"medium",IF(J72&gt;100000,"long"))))))</f>
@@ -5420,18 +4725,18 @@
         <v>192</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73" s="3">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>13</v>
@@ -5448,11 +4753,11 @@
         <v>T4</v>
       </c>
       <c r="J73" s="2">
-        <v>3497</v>
+        <v>66783</v>
       </c>
       <c r="K73" s="2" t="str">
         <f>IF(J73="","",IF(J73="please add","",IF(J73&lt;=10000,"too short",IF(J73&lt;=50000,"short",IF(J73&lt;=100000,"medium",IF(J73&gt;100000,"long"))))))</f>
-        <v>too short</v>
+        <v>medium</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>15</v>
@@ -5461,30 +4766,24 @@
         <v>192</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C74" s="3">
-        <v>1904</v>
+        <v>1919</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G74" s="2">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="H74" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G74)&gt;=70, "yes", "no")</f>
@@ -5495,7 +4794,7 @@
         <v>T4</v>
       </c>
       <c r="J74" s="2">
-        <v>35145</v>
+        <v>38298</v>
       </c>
       <c r="K74" s="2" t="str">
         <f>IF(J74="","",IF(J74="please add","",IF(J74&lt;=10000,"too short",IF(J74&lt;=50000,"short",IF(J74&lt;=100000,"medium",IF(J74&gt;100000,"long"))))))</f>
@@ -5508,27 +4807,24 @@
         <v>192</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C75" s="3">
-        <v>1884</v>
+        <v>1919</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G75" s="2">
-        <v>1886</v>
+        <v>1945</v>
       </c>
       <c r="H75" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G75)&gt;=70, "yes", "no")</f>
@@ -5536,14 +4832,14 @@
       </c>
       <c r="I75" s="2" t="str">
         <f>IF(C75&lt;=1859,"T1",IF(C75&lt;=1879,"T2",IF(C75&lt;=1899,"T3",IF(C75&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J75" s="2">
-        <v>12710</v>
+        <v>3497</v>
       </c>
       <c r="K75" s="2" t="str">
         <f>IF(J75="","",IF(J75="please add","",IF(J75&lt;=10000,"too short",IF(J75&lt;=50000,"short",IF(J75&lt;=100000,"medium",IF(J75&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>too short</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>15</v>
@@ -5552,27 +4848,30 @@
         <v>192</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C76" s="3">
-        <v>1918</v>
+        <v>1904</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G76" s="2">
-        <v>1920</v>
+        <v>1947</v>
       </c>
       <c r="H76" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G76)&gt;=70, "yes", "no")</f>
@@ -5583,11 +4882,11 @@
         <v>T4</v>
       </c>
       <c r="J76" s="2">
-        <v>99777</v>
+        <v>35145</v>
       </c>
       <c r="K76" s="2" t="str">
         <f>IF(J76="","",IF(J76="please add","",IF(J76&lt;=10000,"too short",IF(J76&lt;=50000,"short",IF(J76&lt;=100000,"medium",IF(J76&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>15</v>
@@ -5596,18 +4895,18 @@
         <v>192</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="C77" s="3">
-        <v>1846</v>
+        <v>1884</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>13</v>
@@ -5616,7 +4915,7 @@
         <v>14</v>
       </c>
       <c r="G77" s="2">
-        <v>1854</v>
+        <v>1886</v>
       </c>
       <c r="H77" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G77)&gt;=70, "yes", "no")</f>
@@ -5624,14 +4923,14 @@
       </c>
       <c r="I77" s="2" t="str">
         <f>IF(C77&lt;=1859,"T1",IF(C77&lt;=1879,"T2",IF(C77&lt;=1899,"T3",IF(C77&lt;=1920,"T4","beyond"))))</f>
-        <v>T1</v>
+        <v>T3</v>
       </c>
       <c r="J77" s="2">
-        <v>118666</v>
+        <v>12710</v>
       </c>
       <c r="K77" s="2" t="str">
         <f>IF(J77="","",IF(J77="please add","",IF(J77&lt;=10000,"too short",IF(J77&lt;=50000,"short",IF(J77&lt;=100000,"medium",IF(J77&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>short</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>15</v>
@@ -5640,21 +4939,18 @@
         <v>192</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C78" s="3">
-        <v>1843</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1844</v>
+        <v>1918</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>13</v>
@@ -5663,7 +4959,7 @@
         <v>14</v>
       </c>
       <c r="G78" s="2">
-        <v>1854</v>
+        <v>1920</v>
       </c>
       <c r="H78" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G78)&gt;=70, "yes", "no")</f>
@@ -5671,14 +4967,14 @@
       </c>
       <c r="I78" s="2" t="str">
         <f>IF(C78&lt;=1859,"T1",IF(C78&lt;=1879,"T2",IF(C78&lt;=1899,"T3",IF(C78&lt;=1920,"T4","beyond"))))</f>
-        <v>T1</v>
+        <v>T4</v>
       </c>
       <c r="J78" s="2">
-        <v>153761</v>
+        <v>99777</v>
       </c>
       <c r="K78" s="2" t="str">
         <f>IF(J78="","",IF(J78="please add","",IF(J78&lt;=10000,"too short",IF(J78&lt;=50000,"short",IF(J78&lt;=100000,"medium",IF(J78&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>medium</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>15</v>
@@ -5687,24 +4983,24 @@
         <v>192</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C79" s="3">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G79" s="2">
         <v>1854</v>
@@ -5718,7 +5014,7 @@
         <v>T1</v>
       </c>
       <c r="J79" s="2">
-        <v>149629</v>
+        <v>118666</v>
       </c>
       <c r="K79" s="2" t="str">
         <f>IF(J79="","",IF(J79="please add","",IF(J79&lt;=10000,"too short",IF(J79&lt;=50000,"short",IF(J79&lt;=100000,"medium",IF(J79&gt;100000,"long"))))))</f>
@@ -5731,15 +5027,15 @@
         <v>192</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C80" s="3">
         <v>1843</v>
@@ -5765,7 +5061,7 @@
         <v>T1</v>
       </c>
       <c r="J80" s="2">
-        <v>299313</v>
+        <v>153761</v>
       </c>
       <c r="K80" s="2" t="str">
         <f>IF(J80="","",IF(J80="please add","",IF(J80&lt;=10000,"too short",IF(J80&lt;=50000,"short",IF(J80&lt;=100000,"medium",IF(J80&gt;100000,"long"))))))</f>
@@ -5778,24 +5074,27 @@
         <v>192</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="C81" s="3">
-        <v>1879</v>
+        <v>1849</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G81" s="2">
-        <v>1901</v>
+        <v>1854</v>
       </c>
       <c r="H81" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G81)&gt;=70, "yes", "no")</f>
@@ -5803,34 +5102,37 @@
       </c>
       <c r="I81" s="2" t="str">
         <f>IF(C81&lt;=1859,"T1",IF(C81&lt;=1879,"T2",IF(C81&lt;=1899,"T3",IF(C81&lt;=1920,"T4","beyond"))))</f>
-        <v>T2</v>
+        <v>T1</v>
       </c>
       <c r="J81" s="2">
-        <v>46112</v>
+        <v>149629</v>
       </c>
       <c r="K81" s="2" t="str">
         <f>IF(J81="","",IF(J81="please add","",IF(J81&lt;=10000,"too short",IF(J81&lt;=50000,"short",IF(J81&lt;=100000,"medium",IF(J81&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>long</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C82" s="3">
-        <v>1918</v>
+        <v>1843</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1844</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>13</v>
@@ -5839,7 +5141,7 @@
         <v>14</v>
       </c>
       <c r="G82" s="2">
-        <v>1946</v>
+        <v>1854</v>
       </c>
       <c r="H82" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G82)&gt;=70, "yes", "no")</f>
@@ -5847,14 +5149,14 @@
       </c>
       <c r="I82" s="2" t="str">
         <f>IF(C82&lt;=1859,"T1",IF(C82&lt;=1879,"T2",IF(C82&lt;=1899,"T3",IF(C82&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T1</v>
       </c>
       <c r="J82" s="2">
-        <v>39884</v>
+        <v>299313</v>
       </c>
       <c r="K82" s="2" t="str">
         <f>IF(J82="","",IF(J82="please add","",IF(J82&lt;=10000,"too short",IF(J82&lt;=50000,"short",IF(J82&lt;=100000,"medium",IF(J82&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>long</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>15</v>
@@ -5863,24 +5165,24 @@
         <v>192</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="C83" s="3">
-        <v>1868</v>
+        <v>1879</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G83" s="2">
-        <v>1877</v>
+        <v>1901</v>
       </c>
       <c r="H83" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G83)&gt;=70, "yes", "no")</f>
@@ -5891,7 +5193,7 @@
         <v>T2</v>
       </c>
       <c r="J83" s="2">
-        <v>37789</v>
+        <v>46112</v>
       </c>
       <c r="K83" s="2" t="str">
         <f>IF(J83="","",IF(J83="please add","",IF(J83&lt;=10000,"too short",IF(J83&lt;=50000,"short",IF(J83&lt;=100000,"medium",IF(J83&gt;100000,"long"))))))</f>
@@ -5901,27 +5203,30 @@
         <v>15</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C84" s="3">
-        <v>1873</v>
+        <v>1918</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G84" s="2">
-        <v>1875</v>
+        <v>1946</v>
       </c>
       <c r="H84" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G84)&gt;=70, "yes", "no")</f>
@@ -5929,10 +5234,10 @@
       </c>
       <c r="I84" s="2" t="str">
         <f>IF(C84&lt;=1859,"T1",IF(C84&lt;=1879,"T2",IF(C84&lt;=1899,"T3",IF(C84&lt;=1920,"T4","beyond"))))</f>
-        <v>T2</v>
+        <v>T4</v>
       </c>
       <c r="J84" s="2">
-        <v>22626</v>
+        <v>39884</v>
       </c>
       <c r="K84" s="2" t="str">
         <f>IF(J84="","",IF(J84="please add","",IF(J84&lt;=10000,"too short",IF(J84&lt;=50000,"short",IF(J84&lt;=100000,"medium",IF(J84&gt;100000,"long"))))))</f>
@@ -5945,24 +5250,24 @@
         <v>192</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C85" s="3">
-        <v>1904</v>
+        <v>1868</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="2">
-        <v>1935</v>
+        <v>1877</v>
       </c>
       <c r="H85" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G85)&gt;=70, "yes", "no")</f>
@@ -5970,10 +5275,10 @@
       </c>
       <c r="I85" s="2" t="str">
         <f>IF(C85&lt;=1859,"T1",IF(C85&lt;=1879,"T2",IF(C85&lt;=1899,"T3",IF(C85&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T2</v>
       </c>
       <c r="J85" s="2">
-        <v>37551</v>
+        <v>37789</v>
       </c>
       <c r="K85" s="2" t="str">
         <f>IF(J85="","",IF(J85="please add","",IF(J85&lt;=10000,"too short",IF(J85&lt;=50000,"short",IF(J85&lt;=100000,"medium",IF(J85&gt;100000,"long"))))))</f>
@@ -5986,24 +5291,24 @@
         <v>192</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C86" s="3">
+        <v>1873</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="2">
         <v>1875</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="2">
-        <v>1890</v>
       </c>
       <c r="H86" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G86)&gt;=70, "yes", "no")</f>
@@ -6014,7 +5319,7 @@
         <v>T2</v>
       </c>
       <c r="J86" s="2">
-        <v>22469</v>
+        <v>22626</v>
       </c>
       <c r="K86" s="2" t="str">
         <f>IF(J86="","",IF(J86="please add","",IF(J86&lt;=10000,"too short",IF(J86&lt;=50000,"short",IF(J86&lt;=100000,"medium",IF(J86&gt;100000,"long"))))))</f>
@@ -6027,30 +5332,24 @@
         <v>192</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="2">
-        <v>1916</v>
+        <v>54</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1904</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G87" s="2">
-        <v>1928</v>
+        <v>1935</v>
       </c>
       <c r="H87" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G87)&gt;=70, "yes", "no")</f>
@@ -6061,11 +5360,11 @@
         <v>T4</v>
       </c>
       <c r="J87" s="2">
-        <v>132322</v>
+        <v>37551</v>
       </c>
       <c r="K87" s="2" t="str">
         <f>IF(J87="","",IF(J87="please add","",IF(J87&lt;=10000,"too short",IF(J87&lt;=50000,"short",IF(J87&lt;=100000,"medium",IF(J87&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>short</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>15</v>
@@ -6074,27 +5373,24 @@
         <v>192</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C88" s="3">
-        <v>1842</v>
+        <v>1875</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G88" s="2">
-        <v>1854</v>
+        <v>1890</v>
       </c>
       <c r="H88" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G88)&gt;=70, "yes", "no")</f>
@@ -6102,10 +5398,10 @@
       </c>
       <c r="I88" s="2" t="str">
         <f>IF(C88&lt;=1859,"T1",IF(C88&lt;=1879,"T2",IF(C88&lt;=1899,"T3",IF(C88&lt;=1920,"T4","beyond"))))</f>
-        <v>T1</v>
+        <v>T2</v>
       </c>
       <c r="J88" s="2">
-        <v>38746</v>
+        <v>22469</v>
       </c>
       <c r="K88" s="2" t="str">
         <f>IF(J88="","",IF(J88="please add","",IF(J88&lt;=10000,"too short",IF(J88&lt;=50000,"short",IF(J88&lt;=100000,"medium",IF(J88&gt;100000,"long"))))))</f>
@@ -6117,25 +5413,31 @@
       <c r="M88" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N88" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="3">
-        <v>1879</v>
+        <v>64</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1916</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G89" s="2">
-        <v>1908</v>
+        <v>1928</v>
       </c>
       <c r="H89" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G89)&gt;=70, "yes", "no")</f>
@@ -6143,14 +5445,14 @@
       </c>
       <c r="I89" s="2" t="str">
         <f>IF(C89&lt;=1859,"T1",IF(C89&lt;=1879,"T2",IF(C89&lt;=1899,"T3",IF(C89&lt;=1920,"T4","beyond"))))</f>
-        <v>T2</v>
+        <v>T4</v>
       </c>
       <c r="J89" s="2">
-        <v>39066</v>
+        <v>132322</v>
       </c>
       <c r="K89" s="2" t="str">
         <f>IF(J89="","",IF(J89="please add","",IF(J89&lt;=10000,"too short",IF(J89&lt;=50000,"short",IF(J89&lt;=100000,"medium",IF(J89&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>long</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>15</v>
@@ -6159,27 +5461,27 @@
         <v>192</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C90" s="3">
-        <v>1910</v>
+        <v>1842</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G90" s="2">
-        <v>1925</v>
+        <v>1854</v>
       </c>
       <c r="H90" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G90)&gt;=70, "yes", "no")</f>
@@ -6187,14 +5489,14 @@
       </c>
       <c r="I90" s="2" t="str">
         <f>IF(C90&lt;=1859,"T1",IF(C90&lt;=1879,"T2",IF(C90&lt;=1899,"T3",IF(C90&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T1</v>
       </c>
       <c r="J90" s="2">
-        <v>52966</v>
+        <v>38746</v>
       </c>
       <c r="K90" s="2" t="str">
         <f>IF(J90="","",IF(J90="please add","",IF(J90&lt;=10000,"too short",IF(J90&lt;=50000,"short",IF(J90&lt;=100000,"medium",IF(J90&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>15</v>
@@ -6202,28 +5504,25 @@
       <c r="M90" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="N90" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N90" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C91" s="3">
-        <v>1864</v>
+        <v>1879</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2">
-        <v>1877</v>
+        <v>1908</v>
       </c>
       <c r="H91" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G91)&gt;=70, "yes", "no")</f>
@@ -6234,7 +5533,7 @@
         <v>T2</v>
       </c>
       <c r="J91" s="2">
-        <v>35343</v>
+        <v>39066</v>
       </c>
       <c r="K91" s="2" t="str">
         <f>IF(J91="","",IF(J91="please add","",IF(J91&lt;=10000,"too short",IF(J91&lt;=50000,"short",IF(J91&lt;=100000,"medium",IF(J91&gt;100000,"long"))))))</f>
@@ -6247,27 +5546,27 @@
         <v>192</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C92" s="3">
-        <v>1860</v>
+        <v>1910</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G92" s="2">
-        <v>1867</v>
+        <v>1925</v>
       </c>
       <c r="H92" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G92)&gt;=70, "yes", "no")</f>
@@ -6275,10 +5574,10 @@
       </c>
       <c r="I92" s="2" t="str">
         <f>IF(C92&lt;=1859,"T1",IF(C92&lt;=1879,"T2",IF(C92&lt;=1899,"T3",IF(C92&lt;=1920,"T4","beyond"))))</f>
-        <v>T2</v>
+        <v>T4</v>
       </c>
       <c r="J92" s="2">
-        <v>83611</v>
+        <v>52966</v>
       </c>
       <c r="K92" s="2" t="str">
         <f>IF(J92="","",IF(J92="please add","",IF(J92&lt;=10000,"too short",IF(J92&lt;=50000,"short",IF(J92&lt;=100000,"medium",IF(J92&gt;100000,"long"))))))</f>
@@ -6291,27 +5590,27 @@
         <v>192</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C93" s="3">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="G93" s="2">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="H93" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G93)&gt;=70, "yes", "no")</f>
@@ -6322,7 +5621,7 @@
         <v>T2</v>
       </c>
       <c r="J93" s="2">
-        <v>44241</v>
+        <v>35343</v>
       </c>
       <c r="K93" s="2" t="str">
         <f>IF(J93="","",IF(J93="please add","",IF(J93&lt;=10000,"too short",IF(J93&lt;=50000,"short",IF(J93&lt;=100000,"medium",IF(J93&gt;100000,"long"))))))</f>
@@ -6335,24 +5634,27 @@
         <v>192</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C94" s="3">
-        <v>1903</v>
+        <v>1860</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G94" s="2">
-        <v>1929</v>
+        <v>1867</v>
       </c>
       <c r="H94" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G94)&gt;=70, "yes", "no")</f>
@@ -6360,14 +5662,14 @@
       </c>
       <c r="I94" s="2" t="str">
         <f>IF(C94&lt;=1859,"T1",IF(C94&lt;=1879,"T2",IF(C94&lt;=1899,"T3",IF(C94&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T2</v>
       </c>
       <c r="J94" s="2">
-        <v>208934</v>
+        <v>83611</v>
       </c>
       <c r="K94" s="2" t="str">
         <f>IF(J94="","",IF(J94="please add","",IF(J94&lt;=10000,"too short",IF(J94&lt;=50000,"short",IF(J94&lt;=100000,"medium",IF(J94&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>medium</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>15</v>
@@ -6376,24 +5678,27 @@
         <v>192</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C95" s="3">
-        <v>1907</v>
+        <v>1865</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G95" s="2">
-        <v>1929</v>
+        <v>1867</v>
       </c>
       <c r="H95" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G95)&gt;=70, "yes", "no")</f>
@@ -6401,14 +5706,14 @@
       </c>
       <c r="I95" s="2" t="str">
         <f>IF(C95&lt;=1859,"T1",IF(C95&lt;=1879,"T2",IF(C95&lt;=1899,"T3",IF(C95&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T2</v>
       </c>
       <c r="J95" s="2">
-        <v>108738</v>
+        <v>44241</v>
       </c>
       <c r="K95" s="2" t="str">
         <f>IF(J95="","",IF(J95="please add","",IF(J95&lt;=10000,"too short",IF(J95&lt;=50000,"short",IF(J95&lt;=100000,"medium",IF(J95&gt;100000,"long"))))))</f>
-        <v>long</v>
+        <v>short</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>15</v>
@@ -6417,24 +5722,24 @@
         <v>192</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C96" s="3">
-        <v>1895</v>
+        <v>1903</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G96" s="2">
-        <v>1915</v>
+        <v>1929</v>
       </c>
       <c r="H96" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G96)&gt;=70, "yes", "no")</f>
@@ -6442,14 +5747,14 @@
       </c>
       <c r="I96" s="2" t="str">
         <f>IF(C96&lt;=1859,"T1",IF(C96&lt;=1879,"T2",IF(C96&lt;=1899,"T3",IF(C96&lt;=1920,"T4","beyond"))))</f>
-        <v>T3</v>
+        <v>T4</v>
       </c>
       <c r="J96" s="2">
-        <v>30070</v>
+        <v>208934</v>
       </c>
       <c r="K96" s="2" t="str">
         <f>IF(J96="","",IF(J96="please add","",IF(J96&lt;=10000,"too short",IF(J96&lt;=50000,"short",IF(J96&lt;=100000,"medium",IF(J96&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>long</v>
       </c>
       <c r="L96" s="4" t="s">
         <v>15</v>
@@ -6458,27 +5763,24 @@
         <v>192</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C97" s="3">
-        <v>1918</v>
+        <v>1907</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="H97" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G97)&gt;=70, "yes", "no")</f>
@@ -6489,11 +5791,11 @@
         <v>T4</v>
       </c>
       <c r="J97" s="2">
-        <v>70121</v>
+        <v>108738</v>
       </c>
       <c r="K97" s="2" t="str">
         <f>IF(J97="","",IF(J97="please add","",IF(J97&lt;=10000,"too short",IF(J97&lt;=50000,"short",IF(J97&lt;=100000,"medium",IF(J97&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>long</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>15</v>
@@ -6502,27 +5804,24 @@
         <v>192</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C98" s="3">
-        <v>1917</v>
+        <v>1895</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2">
-        <v>1934</v>
+        <v>1915</v>
       </c>
       <c r="H98" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G98)&gt;=70, "yes", "no")</f>
@@ -6530,14 +5829,14 @@
       </c>
       <c r="I98" s="2" t="str">
         <f>IF(C98&lt;=1859,"T1",IF(C98&lt;=1879,"T2",IF(C98&lt;=1899,"T3",IF(C98&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T3</v>
       </c>
       <c r="J98" s="2">
-        <v>69792</v>
+        <v>30070</v>
       </c>
       <c r="K98" s="2" t="str">
         <f>IF(J98="","",IF(J98="please add","",IF(J98&lt;=10000,"too short",IF(J98&lt;=50000,"short",IF(J98&lt;=100000,"medium",IF(J98&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>15</v>
@@ -6546,18 +5845,18 @@
         <v>192</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C99" s="3">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>13</v>
@@ -6577,7 +5876,7 @@
         <v>T4</v>
       </c>
       <c r="J99" s="2">
-        <v>87950</v>
+        <v>69792</v>
       </c>
       <c r="K99" s="2" t="str">
         <f>IF(J99="","",IF(J99="please add","",IF(J99&lt;=10000,"too short",IF(J99&lt;=50000,"short",IF(J99&lt;=100000,"medium",IF(J99&gt;100000,"long"))))))</f>
@@ -6590,27 +5889,27 @@
         <v>192</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C100" s="3">
-        <v>1879</v>
+        <v>1919</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G100" s="2">
-        <v>1896</v>
+        <v>1934</v>
       </c>
       <c r="H100" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G100)&gt;=70, "yes", "no")</f>
@@ -6618,14 +5917,14 @@
       </c>
       <c r="I100" s="2" t="str">
         <f>IF(C100&lt;=1859,"T1",IF(C100&lt;=1879,"T2",IF(C100&lt;=1899,"T3",IF(C100&lt;=1920,"T4","beyond"))))</f>
-        <v>T2</v>
+        <v>T4</v>
       </c>
       <c r="J100" s="2">
-        <v>17730</v>
+        <v>87950</v>
       </c>
       <c r="K100" s="2" t="str">
         <f>IF(J100="","",IF(J100="please add","",IF(J100&lt;=10000,"too short",IF(J100&lt;=50000,"short",IF(J100&lt;=100000,"medium",IF(J100&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>medium</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>15</v>
@@ -6634,27 +5933,27 @@
         <v>192</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C101" s="3">
-        <v>1918</v>
+        <v>1879</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="G101" s="2">
-        <v>1920</v>
+        <v>1896</v>
       </c>
       <c r="H101" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G101)&gt;=70, "yes", "no")</f>
@@ -6662,14 +5961,14 @@
       </c>
       <c r="I101" s="2" t="str">
         <f>IF(C101&lt;=1859,"T1",IF(C101&lt;=1879,"T2",IF(C101&lt;=1899,"T3",IF(C101&lt;=1920,"T4","beyond"))))</f>
-        <v>T4</v>
+        <v>T2</v>
       </c>
       <c r="J101" s="2">
-        <v>65747</v>
+        <v>17730</v>
       </c>
       <c r="K101" s="2" t="str">
         <f>IF(J101="","",IF(J101="please add","",IF(J101&lt;=10000,"too short",IF(J101&lt;=50000,"short",IF(J101&lt;=100000,"medium",IF(J101&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>15</v>
@@ -6678,27 +5977,27 @@
         <v>192</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C102" s="6">
+        <v>175</v>
+      </c>
+      <c r="C102" s="3">
         <v>1918</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E102" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="F102" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G102" s="2">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="H102" s="2" t="str">
         <f ca="1">IF((YEAR(TODAY())-G102)&gt;=70, "yes", "no")</f>
@@ -6709,11 +6008,11 @@
         <v>T4</v>
       </c>
       <c r="J102" s="2">
-        <v>7510</v>
+        <v>65747</v>
       </c>
       <c r="K102" s="2" t="str">
         <f>IF(J102="","",IF(J102="please add","",IF(J102&lt;=10000,"too short",IF(J102&lt;=50000,"short",IF(J102&lt;=100000,"medium",IF(J102&gt;100000,"long"))))))</f>
-        <v>too short</v>
+        <v>medium</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>15</v>
@@ -6722,30 +6021,24 @@
         <v>192</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C103" s="6">
         <v>1918</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G103" s="2">
         <v>1918</v>
@@ -6759,11 +6052,11 @@
         <v>T4</v>
       </c>
       <c r="J103" s="2">
-        <v>36458</v>
+        <v>7510</v>
       </c>
       <c r="K103" s="2" t="str">
         <f>IF(J103="","",IF(J103="please add","",IF(J103&lt;=10000,"too short",IF(J103&lt;=50000,"short",IF(J103&lt;=100000,"medium",IF(J103&gt;100000,"long"))))))</f>
-        <v>short</v>
+        <v>too short</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>15</v>
@@ -6772,24 +6065,30 @@
         <v>192</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1919</v>
+        <v>186</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1918</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="G104" s="2">
         <v>1918</v>
@@ -6803,23 +6102,23 @@
         <v>T4</v>
       </c>
       <c r="J104" s="2">
-        <v>79195</v>
+        <v>36458</v>
       </c>
       <c r="K104" s="2" t="str">
         <f>IF(J104="","",IF(J104="please add","",IF(J104&lt;=10000,"too short",IF(J104&lt;=50000,"short",IF(J104&lt;=100000,"medium",IF(J104&gt;100000,"long"))))))</f>
-        <v>medium</v>
+        <v>short</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>188</v>
       </c>
@@ -6862,11 +6161,11 @@
       <c r="N105" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="O105" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>117</v>
       </c>
@@ -6913,7 +6212,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>98</v>
       </c>
@@ -6957,7 +6256,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>98</v>
       </c>
@@ -7001,7 +6300,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>98</v>
       </c>
@@ -7045,7 +6344,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -7086,10 +6385,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.2">
@@ -7307,107 +6606,102 @@
       <c r="C183" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N101" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N101">
-      <sortCondition ref="N1:N101"/>
+  <autoFilter ref="A1:O110" xr:uid="{ABD0BF6C-6DE1-F846-9053-7A31173332DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O110">
+      <sortCondition ref="O2:O110"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O110">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N110">
     <sortCondition ref="N2:N110"/>
   </sortState>
-  <conditionalFormatting sqref="A95:G95 A94:F94 A97:G97 A96:E96 A98:E98 M65:N65 M54:N54 M57:N58 M47:N49 M43:N44 M33:N40 M19:N27 L55:N56 L41:N42 L99:N99 L50:N53 L45:N46 L95:N95 A99:G100 M100:N100 A81:G93 H81:J100 L66:N90 L59:N64 L28:N32 L1:N18 A116:J1048576 A113:G115 I113:J115 A1:J80 L101:N1048576 A101:J112 H3:H110 L18:L106 O101:O110">
-    <cfRule type="containsText" dxfId="22" priority="42" operator="containsText" text="please add">
+  <conditionalFormatting sqref="A95:G95 A94:F94 A97:G97 A96:E96 A98:E98 M65:N65 M54:N54 M57:N58 M47:N49 M43:N44 M33:N40 M19:N27 L55:N56 L41:N42 L99:N99 L50:N53 L45:N46 L95:N95 A99:G100 M100:N100 A81:G93 H81:J100 L66:N90 L59:N64 L28:N32 L1:N18 A116:J1048576 A113:G115 I113:J115 A1:J80 L101:N1048576 A101:J112 H3:H110 L18:L106 O104:P104 P101:P110 P79">
+    <cfRule type="containsText" dxfId="21" priority="42" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L183">
-    <cfRule type="cellIs" dxfId="20" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="40" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H110">
-    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="nein">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="nein">
       <formula>NOT(ISERROR(SEARCH("nein",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I276">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="beyond">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="beyond">
       <formula>NOT(ISERROR(SEARCH("beyond",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L183">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="16" priority="37" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C183">
-    <cfRule type="cellIs" dxfId="16" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="36" operator="greaterThan">
       <formula>1920</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:G96 F98:G98 N94 L91:N93 L96:N98">
-    <cfRule type="containsText" dxfId="14" priority="34" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="13" priority="34" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",F91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="containsText" dxfId="13" priority="32" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94">
-    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",G94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L94">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L94">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L94">
-    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="8" priority="25" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="7" priority="18" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",L110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>"in progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110">
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="completed/in revision">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="completed/in revision">
       <formula>NOT(ISERROR(SEARCH("completed/in revision",L110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="please add">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="please add">
       <formula>NOT(ISERROR(SEARCH("please add",M94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O79">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="please add">
-      <formula>NOT(ISERROR(SEARCH("please add",O79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K108">
